--- a/Scrum/YANTI AMALIASARI.xlsx
+++ b/Scrum/YANTI AMALIASARI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER 4\PEMOGRAMAN MOBILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722E1C64-62E1-4800-ACA0-B7E406E6D658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388ED90C-F1ED-4E6F-8E75-B79460DD9000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Project Name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>Created pdf</t>
   </si>
 </sst>
 </file>
@@ -932,10 +935,10 @@
                 <c:formatCode>@</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>133.33333333333331</c:v>
+                  <c:v>88.581314878892741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33.333333333333314</c:v>
+                  <c:v>11.418685121107259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,7 +1393,7 @@
   <dimension ref="A1:N1027"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1500,7 +1503,7 @@
       </c>
       <c r="C9" s="13">
         <f>SUM(F13:F46)/8</f>
-        <v>1.5</v>
+        <v>2.125</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1518,7 +1521,7 @@
       </c>
       <c r="C10" s="14">
         <f>((C4/C9)/AVERAGE(F13:F46)*100)</f>
-        <v>133.33333333333331</v>
+        <v>88.581314878892741</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1536,7 +1539,7 @@
       </c>
       <c r="C11" s="14">
         <f>100-C10</f>
-        <v>-33.333333333333314</v>
+        <v>11.418685121107259</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1634,7 +1637,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="23">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22">
@@ -1654,12 +1657,22 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="23">
+        <v>50</v>
+      </c>
       <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="F16" s="22">
+        <v>5</v>
+      </c>
+      <c r="G16" s="74">
+        <v>44961</v>
+      </c>
+      <c r="H16" s="74">
+        <v>45022</v>
+      </c>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
       <c r="K16" s="2">
@@ -1667,7 +1680,7 @@
       </c>
       <c r="L16">
         <f>F16/8</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2065,7 +2078,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2">
         <f>AVERAGEA(D31:D32,D41:D46,D18,D13:D15)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2111,7 +2124,7 @@
       </c>
       <c r="F52" s="63">
         <f>(SUM(F13:F47))/8</f>
-        <v>1.5</v>
+        <v>2.125</v>
       </c>
       <c r="G52" s="63" t="s">
         <v>20</v>
@@ -2178,7 +2191,7 @@
       </c>
       <c r="J57">
         <f>(F52+7)-21</f>
-        <v>-12.5</v>
+        <v>-11.875</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="18.75" customHeight="1">
